--- a/考核表2017-测试-陈少伟.xlsx
+++ b/考核表2017-测试-陈少伟.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.USER-20090105OJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bloo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>产品部所有员工将按考核表进行考核，考核分自评，经理评两个部分，取两者平均分。</t>
   </si>
@@ -172,23 +172,6 @@
   </si>
   <si>
     <t>陈少伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>合计8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.55 评价B</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -378,56 +361,56 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -794,49 +777,49 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
@@ -863,421 +846,424 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="22">
         <f>(E10+F10)/2</f>
-        <v>80</v>
-      </c>
-      <c r="H9" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="H9" s="22">
         <f>G9*0.3</f>
-        <v>24</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="12">
         <v>85</v>
       </c>
-      <c r="F10" s="27">
-        <v>75</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="15"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="15"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="22">
         <f>(E16+F16)/2</f>
-        <v>82.5</v>
-      </c>
-      <c r="H15" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="H15" s="22">
         <f>G15*0.3</f>
-        <v>24.75</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="12">
         <v>85</v>
       </c>
-      <c r="F16" s="27">
-        <v>80</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="24">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="22">
         <f>(E22+F22)/2</f>
-        <v>80</v>
-      </c>
-      <c r="H21" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="H21" s="22">
         <f>G21*0.1</f>
-        <v>8</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="15"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="12">
         <v>85</v>
       </c>
-      <c r="F22" s="27">
-        <v>75</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="15"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="15"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="15"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="15"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="24">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="22">
         <f>(E28+F28)/2</f>
-        <v>83</v>
-      </c>
-      <c r="H27" s="24">
+        <v>43</v>
+      </c>
+      <c r="H27" s="22">
         <f>G27*0.1</f>
-        <v>8.3000000000000007</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="12">
         <v>86</v>
       </c>
-      <c r="F28" s="27">
-        <v>80</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="15"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="15"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:8" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="24">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="22">
         <f>(E34+F34)/2</f>
-        <v>77.5</v>
-      </c>
-      <c r="H33" s="24">
+        <v>42.5</v>
+      </c>
+      <c r="H33" s="22">
         <f>G33*0.2</f>
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="15"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="12">
         <v>85</v>
       </c>
-      <c r="F34" s="27">
-        <v>70</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="15"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="15"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="15"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="2:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H33:H37"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:H40"/>
     <mergeCell ref="B9:B19"/>
@@ -1294,21 +1280,6 @@
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="H9:H13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
